--- a/data.xlsx
+++ b/data.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Larry/Documents/Projects/CS4246/BayesianOptimisation/BayesianOptimisationProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joey/NUS/Year 5 Sem 1/CS4246/Project 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -394,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="H850" sqref="H850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,7 +402,8 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="9" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
@@ -29237,6 +29235,9 @@
       <c r="G759" s="1">
         <v>8</v>
       </c>
+      <c r="H759" s="1">
+        <v>4</v>
+      </c>
       <c r="I759" s="4">
         <v>4</v>
       </c>
